--- a/document/商品信息.xlsx
+++ b/document/商品信息.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9B10126-71C7-44D9-8148-3212E9D37D22}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62DB97E5-9B11-4750-94E1-DD943E6764EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
   <si>
     <t>价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -241,6 +241,308 @@
   </si>
   <si>
     <t>小米平板 3 6600mAh 轻薄超大电量，精彩海量内容 64GB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/iphone8p.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/iphonex.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/macpro.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/ipadpro.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/iwatch3.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/airpods.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/honor10.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/maters.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/mobilecharging.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/padm5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/smartwatch.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone 8 plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>macbook pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipad pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iwacth 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>airpods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mate rs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>honor 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matebook x pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pad m5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartwatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile charging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pad 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix 2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">notebook pro </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wristband 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>headphones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/headphones.jpg</t>
+  </si>
+  <si>
+    <t>xiaomi/pad3.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/wristband2.jpg</t>
+  </si>
+  <si>
+    <t>xiaomi/mix2s.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/notebookpro.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charging adapter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo/r15.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo/chargingadapter.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x21 fifa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo/x21.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo/mambohr.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo/xe1000.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xe 1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mambo hr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp/eliteBookx360g2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp/mouse200.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp/envy15x360.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>envy x360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elitebook x360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse 200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/matebookxpro.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -608,481 +910,708 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="70.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="70.875" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="43.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="43.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>6630</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6">
         <v>42979</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>8316</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="6">
         <v>42979</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>14165</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="6">
         <v>42979</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>5143</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="6">
         <v>42979</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>2565</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="6">
         <v>42979</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>1276</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="6">
         <v>42614</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>9999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="6">
         <v>43191</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>2599</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="6">
         <v>43191</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>12988</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="6">
         <v>43191</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>2888</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="6">
         <v>43191</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>4988</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6">
         <v>43040</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>99</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="6">
         <v>42491</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>1499</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="6">
         <v>42826</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>3299</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="6">
         <v>43221</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>35</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>5599</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6">
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="6">
         <v>42979</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>149</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6">
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="6">
         <v>43132</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>499</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6">
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="6">
         <v>42705</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="5">
         <v>3199</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="6">
         <v>43221</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
         <v>79</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="6">
         <v>42644</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>3698</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="6">
         <v>43252</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
         <v>199</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="6">
         <v>41974</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>1999</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="6">
         <v>42948</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>50</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="5">
         <v>7499</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="6">
         <v>43101</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>35</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="5">
         <v>12999</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="6">
         <v>43160</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>35</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
       <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="6">
         <v>42614</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>21</v>
       </c>
     </row>

--- a/document/商品信息.xlsx
+++ b/document/商品信息.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62DB97E5-9B11-4750-94E1-DD943E6764EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF46B0FF-08DF-4D5F-9603-BAC9ED608507}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,12 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快递速度不错。视频游戏视觉效果好。我充电大约3个半小时左右。有的app耗电量也挺快的，续航时间一般。比较适合办公和学习，画画</t>
-  </si>
-  <si>
-    <t>Apple Watch作为一款苹果的产品想必不用我多说了吧，各方面都是同行中最高水准，无论是硬件还是软件人家细节的部分都做的很到位！唯一的一点就是充电正常一天下来还剩50%～60%?，还好充电速度挺快的半小时就能100%了！在我眼里它是一款OK的产品！我很满意！希望apple不忘初心再接再厉！！！</t>
-  </si>
-  <si>
     <t>Apple/苹果 Watch Series 3 深空灰色铝金属表壳搭配黑色运动型表带</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,9 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>很灵敏！跟我的X很匹配。看了那么久终于入手了！很值得，开车也很方便用，不容易掉出来，跟平时的耳机差不多，就是图个方便。发票是另一个时间到的。很满意！ 噢 安卓机试了一下也能用到也有很多限制的地方。 嘻嘻很满意很满意</t>
-  </si>
-  <si>
     <t>手机</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -115,9 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>手感真的不错哦，高端大气上档次。昨天买的今天早上就到了，好快啊</t>
-  </si>
-  <si>
     <t>荣耀10 AI摄影手机 6GB+64GB 幻影蓝 全网通 双卡双待 高配版</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,16 +118,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外观特别漂亮，运行速度超快，特别值的一次购买！</t>
-  </si>
-  <si>
     <t>华为平板 M5 10.8英寸 4GB+64GB WiFi版（深空灰）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特别喜欢，很好，没想到像素也超级好</t>
-  </si>
-  <si>
     <t>PORSCHE DESIGN | HUAWEI Smartwatch 华为智能手表 保时捷联合设计（曜石黑）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,10 +141,6 @@
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米笔记本Pro 15.6英寸 NVIDIA MX150 2G独显/全金属强化机身/FHD全贴合屏幕 /丰富接口多达7个/office激活不支持7天无理由退货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -222,327 +200,360 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一直在红色和金色中徘徊犹豫，最后还是选择了大红防水逆，哈哈，颜色很好看！速度快啊，用起来舒服，不错不错，绝对好评！</t>
-  </si>
-  <si>
-    <t>惠普薄锐HP ENVY X360 15-bp105tx 笔记本电脑(英特尔8代处理器)</t>
-  </si>
-  <si>
     <t xml:space="preserve">79
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>惠普精英HP EliteBook x360 1030 G2 变形本（能源之星）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米平板 3 6600mAh 轻薄超大电量，精彩海量内容 64GB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/iphone8p.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/iphonex.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/macpro.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/ipadpro.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/iwatch3.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple/airpods.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/honor10.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/maters.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/mobilecharging.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/padm5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/smartwatch.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone 8 plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>macbook pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipad pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iwacth 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>airpods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mate rs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>honor 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matebook x pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pad m5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartwatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile charging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pad 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix 2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">notebook pro </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wristband 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>headphones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/pad3.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/mix2s.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/notebookpro.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charging adapter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo/r15.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo/chargingadapter.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x21 fifa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo/x21.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo/mambohr.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo/xe1000.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xe 1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mambo hr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp/eliteBookx360g2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp/mouse200.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp/envy15x360.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>envy x360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elitebook x360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse 200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei/matebookxpro.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/wristband2.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/headphones.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米笔记本Pro 15.6英寸 NVIDIA MX150 2G独显/全金属强化机身/FHD全贴合屏幕 /丰富接口多达7个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠普薄锐HP ENVY X360 15-bp105tx 笔记本电脑(英特尔8代处理器)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>惠普HP 200 无线鼠标</t>
-  </si>
-  <si>
-    <t>惠普精英HP EliteBook x360 1030 G2 变形本（能源之星）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米平板 3 6600mAh 轻薄超大电量，精彩海量内容 64GB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple_003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple_004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple_005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple_006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple/iphone8p.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple/iphonex.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple/macpro.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple/ipadpro.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple/iwatch3.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple/airpods.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei_003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei_004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei_005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei_006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei/honor10.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei/maters.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei/mobilecharging.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei/padm5.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei/smartwatch.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iphone 8 plus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iphone x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>macbook pro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipad pro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iwacth 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>airpods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mate rs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>honor 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>matebook x pro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pad m5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>smartwatch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile charging</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaomi_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaomi_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaomi_003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaomi_004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaomi_005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pad 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mix 2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">notebook pro </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wristband 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>headphones</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaomi/headphones.jpg</t>
-  </si>
-  <si>
-    <t>xiaomi/pad3.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaomi/wristband2.jpg</t>
-  </si>
-  <si>
-    <t>xiaomi/mix2s.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaomi/notebookpro.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppo_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppo_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>charging adapter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppo/r15.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppo/chargingadapter.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo_003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x21 fifa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo/x21.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo/mambohr.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo/xe1000.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xe 1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mambo hr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp/eliteBookx360g2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp/mouse200.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp/envy15x360.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>envy x360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elitebook x360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mouse 200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei/matebookxpro.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直在红色和金色中徘徊犹豫，最后还是选择了大红防水逆，哈哈，颜色很好看！速度快啊，用起来舒服，不错不错，绝对好评！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch作为一款苹果的产品想必不用我多说了吧，各方面都是同行中最高水准，无论是硬件还是软件人家细节的部分都做的很到位！唯一的一点就是充电正常一天下来还剩50%～60%?，还好充电速度挺快的半小时就能100%了！在我眼里它是一款OK的产品！我很满意！希望apple不忘初心再接再厉！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递速度不错。视频游戏视觉效果好。我充电大约3个半小时左右。有的app耗电量也挺快的，续航时间一般。比较适合办公和学习，画画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很灵敏！跟我的X很匹配。看了那么久终于入手了！很值得，开车也很方便用，不容易掉出来，跟平时的耳机差不多，就是图个方便。发票是另一个时间到的。很满意！ 噢 安卓机试了一下也能用到也有很多限制的地方。 嘻嘻很满意很满意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手感真的不错哦，高端大气上档次。昨天买的今天早上就到了，好快啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观特别漂亮，运行速度超快，特别值的一次购买！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别喜欢，很好，没想到像素也超级好</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +924,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G27" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -951,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -959,36 +970,36 @@
     </row>
     <row r="2" spans="1:11" ht="43.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5">
         <v>6630</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6">
         <v>42979</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -997,7 +1008,7 @@
         <v>8316</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F3" s="6">
         <v>42979</v>
@@ -1006,15 +1017,15 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -1023,7 +1034,7 @@
         <v>14165</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F4" s="6">
         <v>42979</v>
@@ -1032,15 +1043,15 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -1049,224 +1060,224 @@
         <v>5143</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6">
         <v>42979</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>2565</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6">
         <v>42979</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>1276</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F7" s="6">
         <v>42614</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>9999</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F9" s="6">
         <v>43191</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5">
         <v>2599</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F10" s="6">
         <v>43191</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5">
         <v>12988</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F11" s="6">
         <v>43191</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5">
         <v>2888</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F12" s="6">
         <v>43191</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5">
         <v>4988</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6">
         <v>43040</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5">
         <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F14" s="6">
         <v>42491</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1276,262 +1287,262 @@
     </row>
     <row r="16" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5">
         <v>1499</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F16" s="6">
         <v>42826</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="5">
         <v>3299</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F17" s="6">
         <v>43221</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D18" s="5">
         <v>5599</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F18" s="6">
         <v>42979</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D19" s="5">
         <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F19" s="6">
         <v>43132</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5">
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F20" s="6">
         <v>42705</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D22" s="5">
         <v>3199</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F22" s="6">
         <v>43221</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D23" s="5">
         <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F23" s="6">
         <v>42644</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D25" s="5">
         <v>3698</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F25" s="6">
         <v>43252</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D26" s="5">
         <v>199</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F26" s="6">
         <v>41974</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D27" s="5">
         <v>1999</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F27" s="6">
         <v>42948</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1539,80 +1550,80 @@
     </row>
     <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="D29" s="5">
         <v>7499</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6">
         <v>43101</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D30" s="5">
         <v>12999</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F30" s="6">
         <v>43160</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F31" s="6">
         <v>42614</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/document/商品信息.xlsx
+++ b/document/商品信息.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF46B0FF-08DF-4D5F-9603-BAC9ED608507}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5AF6EB52-01BB-4AE0-AC60-A0F8CD69C15C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="135">
   <si>
     <t>价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -554,6 +554,10 @@
   </si>
   <si>
     <t>特别喜欢，很好，没想到像素也超级好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -923,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G26:G27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,7 +968,9 @@
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -993,6 +999,9 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1019,6 +1028,9 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1045,6 +1057,9 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1071,6 +1086,9 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1097,6 +1115,9 @@
       <c r="H6" t="s">
         <v>17</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1123,6 +1144,9 @@
       <c r="H7" t="s">
         <v>18</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1149,6 +1173,9 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1175,6 +1202,9 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1201,6 +1231,9 @@
       <c r="H11" t="s">
         <v>14</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1227,6 +1260,9 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1253,6 +1289,9 @@
       <c r="H13" t="s">
         <v>17</v>
       </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1278,6 +1317,9 @@
       </c>
       <c r="H14" t="s">
         <v>18</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1310,8 +1352,11 @@
       <c r="H16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1336,8 +1381,11 @@
       <c r="H17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1362,8 +1410,11 @@
       <c r="H18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -1388,8 +1439,11 @@
       <c r="H19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1414,8 +1468,11 @@
       <c r="H20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -1440,8 +1497,11 @@
       <c r="H22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1466,8 +1526,11 @@
       <c r="H23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -1492,8 +1555,11 @@
       <c r="H25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -1518,8 +1584,11 @@
       <c r="H26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -1544,11 +1613,14 @@
       <c r="H27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -1573,8 +1645,11 @@
       <c r="H29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -1599,8 +1674,11 @@
       <c r="H30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -1624,6 +1702,9 @@
       </c>
       <c r="H31" t="s">
         <v>18</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
